--- a/game/Decide/Decide/Asset/Data/Message.xlsx
+++ b/game/Decide/Decide/Asset/Data/Message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
@@ -24,78 +24,110 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>てすと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MessageID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ぶっころしてやるー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NextID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>てすとだよー\n改行のテスト\n\n2重改行</t>
+    <t>チップなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歴史のチップなしのNPCです。</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火があれば何か出来そうなのに・・・。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火のチップ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火のチップのNPCです。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄のチップ</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石油のチップ</t>
+    <rPh sb="0" eb="2">
+      <t>セキユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄があれば何か出来そうなのに・・・。</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄のチップのNPCです。</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石油があれば何か出来そうなのに・・・。</t>
+    <rPh sb="0" eb="2">
+      <t>セキユ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>カイギョウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ころころ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">it’s a beautiful day outside. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>birds are singing, flowers are blooming…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> on days like these, kids like you…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">S h o u l d   b e   b u r n i n g   i n   h e l l . </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネクストメッセージてすと。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>うまく次のテキストが表示されたかな？</t>
-    <rPh sb="3" eb="4">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストスピードてすと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストのスピードはちょうどいいかな？</t>
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石油のチップのNPCです。</t>
+    <rPh sb="0" eb="2">
+      <t>セキユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法ついかてぇ。</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,20 +519,20 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -509,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -517,13 +549,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -531,10 +563,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -545,10 +577,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -559,13 +591,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -573,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -587,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -601,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -615,13 +647,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -629,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -643,10 +675,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>-1</v>
